--- a/resources/excel/LinkWorkbook.xlsx
+++ b/resources/excel/LinkWorkbook.xlsx
@@ -68,7 +68,7 @@
     <t>2025-03-10 14:45:21.945055+05:30</t>
   </si>
   <si>
-    <t>links_created</t>
+    <t>links</t>
   </si>
   <si>
     <t>number</t>
